--- a/xlsx/洋葱新闻_intext.xlsx
+++ b/xlsx/洋葱新闻_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_洋葱新闻</t>
+    <t>创办人</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_洋葱新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%8D%9A%E8%BF%AA%E7%8D%8E</t>
   </si>
   <si>
-    <t>皮博迪獎</t>
+    <t>皮博迪奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%B0%94%E5%BE%B7</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E4%B8%81</t>
   </si>
   <si>
-    <t>奧斯丁</t>
+    <t>奥斯丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%93%88</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E8%A1%93</t>
   </si>
   <si>
-    <t>巫術</t>
+    <t>巫术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%97%A6%E6%95%99</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%97%A5%E6%8A%A5</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%9E%9E%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>愛瞞日報</t>
+    <t>爱瞒日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Washington_Post</t>
@@ -2262,7 +2262,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
